--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="83">
   <si>
     <t>Lunes</t>
   </si>
@@ -278,6 +278,27 @@
   </si>
   <si>
     <t>historico campeonatos</t>
+  </si>
+  <si>
+    <t>Entrepreneur</t>
+  </si>
+  <si>
+    <t>Viernes 29 de mayo</t>
+  </si>
+  <si>
+    <t>quien es Elon Musk</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Lunes 1 de junio</t>
+  </si>
+  <si>
+    <t>toDoapp</t>
+  </si>
+  <si>
+    <t>weatherApp</t>
   </si>
 </sst>
 </file>
@@ -892,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1034,7 @@
         <v>74</v>
       </c>
       <c r="L3" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>75</v>
@@ -1051,12 +1072,24 @@
         <v>50</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
+      <c r="J4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="10">
+        <v>4</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="10">
+        <v>1</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -1084,12 +1117,24 @@
         <v>50</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
+      <c r="J5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="10">
+        <v>7</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="10">
+        <v>4</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
@@ -1117,12 +1162,24 @@
         <v>50</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
+      <c r="J6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="10">
+        <v>7</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="10">
+        <v>5</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="89">
   <si>
     <t>Lunes</t>
   </si>
@@ -299,6 +299,24 @@
   </si>
   <si>
     <t>weatherApp</t>
+  </si>
+  <si>
+    <t>Viernes 5 de junio</t>
+  </si>
+  <si>
+    <t>Viernes 10 de julio</t>
+  </si>
+  <si>
+    <t>viernes 7 de agosto</t>
+  </si>
+  <si>
+    <t>Primer entrega PROYECTO FINAL</t>
+  </si>
+  <si>
+    <t>Segunda entrega PROYECTO FINAL</t>
+  </si>
+  <si>
+    <t>Tercer entrega PROYECTO FINAL</t>
   </si>
 </sst>
 </file>
@@ -914,7 +932,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +949,7 @@
     <col min="10" max="10" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" style="1"/>
   </cols>
@@ -1034,7 +1052,7 @@
         <v>74</v>
       </c>
       <c r="L3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>75</v>
@@ -1079,7 +1097,7 @@
         <v>77</v>
       </c>
       <c r="L4" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>78</v>
@@ -1124,7 +1142,7 @@
         <v>80</v>
       </c>
       <c r="L5" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>81</v>
@@ -1169,7 +1187,7 @@
         <v>80</v>
       </c>
       <c r="L6" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>82</v>
@@ -1207,12 +1225,24 @@
         <v>50</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
+      <c r="J7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="10">
+        <v>10</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="10">
+        <v>5</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
@@ -1240,12 +1270,22 @@
         <v>50</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="L8" s="10"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
+      <c r="M8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="10">
+        <v>5</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
@@ -1273,12 +1313,22 @@
         <v>27</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
+      <c r="M9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="10">
+        <v>5</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="93">
   <si>
     <t>Lunes</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>Tercer entrega PROYECTO FINAL</t>
+  </si>
+  <si>
+    <t>mapa mental</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>miercoles 3 de mayo</t>
+  </si>
+  <si>
+    <t>DB de supermercado</t>
   </si>
 </sst>
 </file>
@@ -931,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,13 +1064,13 @@
         <v>74</v>
       </c>
       <c r="L3" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>75</v>
       </c>
       <c r="N3" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>42</v>
@@ -1091,19 +1103,19 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="4" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L4" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N4" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>42</v>
@@ -1136,19 +1148,19 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L5" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N5" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>42</v>
@@ -1181,19 +1193,19 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L6" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N6" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>42</v>
@@ -1226,19 +1238,19 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="4" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L7" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N7" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>42</v>
@@ -1271,17 +1283,19 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="4" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="L8" s="10">
+        <v>5</v>
+      </c>
       <c r="M8" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N8" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>42</v>
@@ -1317,11 +1331,13 @@
         <v>40</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="L9" s="10">
+        <v>10</v>
+      </c>
       <c r="M9" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N9" s="10">
         <v>5</v>
@@ -1356,12 +1372,24 @@
         <v>27</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
+      <c r="J10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="10">
+        <v>5</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
@@ -1389,12 +1417,24 @@
         <v>27</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
+      <c r="J11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="10">
+        <v>5</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="93">
   <si>
     <t>Lunes</t>
   </si>
@@ -280,15 +280,6 @@
     <t>historico campeonatos</t>
   </si>
   <si>
-    <t>Entrepreneur</t>
-  </si>
-  <si>
-    <t>Viernes 29 de mayo</t>
-  </si>
-  <si>
-    <t>quien es Elon Musk</t>
-  </si>
-  <si>
     <t>JS</t>
   </si>
   <si>
@@ -319,9 +310,6 @@
     <t>Tercer entrega PROYECTO FINAL</t>
   </si>
   <si>
-    <t>mapa mental</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -329,6 +317,18 @@
   </si>
   <si>
     <t>DB de supermercado</t>
+  </si>
+  <si>
+    <t>Emprendedurismo</t>
+  </si>
+  <si>
+    <t>viernes 5 de agosto</t>
+  </si>
+  <si>
+    <t>Sam Walton</t>
+  </si>
+  <si>
+    <t>Progreso,,,</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +510,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -553,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,6 +645,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,7 +953,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +972,7 @@
     <col min="12" max="12" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1064,7 +1073,7 @@
         <v>74</v>
       </c>
       <c r="L3" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>75</v>
@@ -1072,8 +1081,8 @@
       <c r="N3" s="10">
         <v>4</v>
       </c>
-      <c r="O3" s="12" t="s">
-        <v>42</v>
+      <c r="O3" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1106,19 +1115,19 @@
         <v>40</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L4" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N4" s="10">
         <v>5</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>42</v>
+      <c r="O4" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1154,16 +1163,16 @@
         <v>77</v>
       </c>
       <c r="L5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>78</v>
       </c>
       <c r="N5" s="10">
-        <v>1</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1199,16 +1208,16 @@
         <v>77</v>
       </c>
       <c r="L6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="N6" s="10">
-        <v>3</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1238,22 +1247,22 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="4" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L7" s="10">
+        <v>10</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="10">
         <v>5</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="10">
-        <v>4</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>42</v>
+      <c r="O7" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1283,19 +1292,19 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="4" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="10">
+        <v>81</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="10">
         <v>5</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="10">
-        <v>4</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>42</v>
@@ -1331,13 +1340,13 @@
         <v>40</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="10">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N9" s="10">
         <v>5</v>
@@ -1373,19 +1382,19 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="4" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="10" t="s">
         <v>90</v>
       </c>
+      <c r="L10" s="10">
+        <v>3</v>
+      </c>
       <c r="M10" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N10" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>42</v>
@@ -1417,24 +1426,12 @@
         <v>27</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" s="10">
-        <v>5</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="96">
   <si>
     <t>Lunes</t>
   </si>
@@ -292,15 +292,6 @@
     <t>weatherApp</t>
   </si>
   <si>
-    <t>Viernes 5 de junio</t>
-  </si>
-  <si>
-    <t>Viernes 10 de julio</t>
-  </si>
-  <si>
-    <t>viernes 7 de agosto</t>
-  </si>
-  <si>
     <t>Primer entrega PROYECTO FINAL</t>
   </si>
   <si>
@@ -310,12 +301,6 @@
     <t>Tercer entrega PROYECTO FINAL</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>miercoles 3 de mayo</t>
-  </si>
-  <si>
     <t>DB de supermercado</t>
   </si>
   <si>
@@ -328,7 +313,31 @@
     <t>Sam Walton</t>
   </si>
   <si>
-    <t>Progreso,,,</t>
+    <t>Entregado</t>
+  </si>
+  <si>
+    <t>Progreso…</t>
+  </si>
+  <si>
+    <t>Viernes 12 de junio</t>
+  </si>
+  <si>
+    <t>Viernes 17 de julio</t>
+  </si>
+  <si>
+    <t>viernes 14 de agosto</t>
+  </si>
+  <si>
+    <t>1 mes</t>
+  </si>
+  <si>
+    <t>2 meses</t>
+  </si>
+  <si>
+    <t>miercoles 3 de junio</t>
+  </si>
+  <si>
+    <t>Terminado</t>
   </si>
 </sst>
 </file>
@@ -425,7 +434,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +525,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -559,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,14 +655,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +988,7 @@
     <col min="7" max="7" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40" style="3" bestFit="1" customWidth="1"/>
@@ -976,24 +997,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="J1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="J1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
@@ -1072,8 +1093,8 @@
       <c r="K3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="10">
-        <v>0</v>
+      <c r="L3" s="32">
+        <v>-6</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>75</v>
@@ -1081,8 +1102,8 @@
       <c r="N3" s="10">
         <v>4</v>
       </c>
-      <c r="O3" s="30" t="s">
-        <v>92</v>
+      <c r="O3" s="28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1115,19 +1136,19 @@
         <v>40</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L4" s="10">
         <v>0</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N4" s="10">
         <v>5</v>
       </c>
-      <c r="O4" s="30" t="s">
-        <v>92</v>
+      <c r="O4" s="31" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1162,8 +1183,8 @@
       <c r="K5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="10">
-        <v>0</v>
+      <c r="L5" s="32">
+        <v>-3</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>78</v>
@@ -1171,8 +1192,8 @@
       <c r="N5" s="10">
         <v>4</v>
       </c>
-      <c r="O5" s="30" t="s">
-        <v>92</v>
+      <c r="O5" s="28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1207,8 +1228,8 @@
       <c r="K6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="10">
-        <v>0</v>
+      <c r="L6" s="32">
+        <v>-3</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>79</v>
@@ -1216,8 +1237,8 @@
       <c r="N6" s="10">
         <v>4</v>
       </c>
-      <c r="O6" s="30" t="s">
-        <v>92</v>
+      <c r="O6" s="28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1250,19 +1271,19 @@
         <v>40</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L7" s="10">
         <v>10</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N7" s="10">
         <v>5</v>
       </c>
-      <c r="O7" s="30" t="s">
-        <v>92</v>
+      <c r="O7" s="28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1295,13 +1316,13 @@
         <v>40</v>
       </c>
       <c r="K8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="N8" s="10">
         <v>5</v>
@@ -1340,13 +1361,13 @@
         <v>40</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="N9" s="10">
         <v>5</v>
@@ -1382,22 +1403,22 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L10" s="10">
         <v>3</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N10" s="10">
         <v>1</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>42</v>
+      <c r="O10" s="31" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="97">
   <si>
     <t>Lunes</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Terminado</t>
+  </si>
+  <si>
+    <t>Mapa de empatia</t>
   </si>
 </sst>
 </file>
@@ -658,16 +661,16 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,7 +977,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,24 +1000,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="J1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="J1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
@@ -1093,14 +1096,14 @@
       <c r="K3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="30">
         <v>-6</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>75</v>
       </c>
       <c r="N3" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3" s="28" t="s">
         <v>88</v>
@@ -1147,7 +1150,7 @@
       <c r="N4" s="10">
         <v>5</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="29" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1183,14 +1186,14 @@
       <c r="K5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="30">
         <v>-3</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>78</v>
       </c>
       <c r="N5" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>88</v>
@@ -1228,14 +1231,14 @@
       <c r="K6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="30">
         <v>-3</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N6" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>88</v>
@@ -1280,7 +1283,7 @@
         <v>80</v>
       </c>
       <c r="N7" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>88</v>
@@ -1325,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="N8" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>42</v>
@@ -1370,7 +1373,7 @@
         <v>82</v>
       </c>
       <c r="N9" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>42</v>
@@ -1409,7 +1412,7 @@
         <v>85</v>
       </c>
       <c r="L10" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>86</v>
@@ -1417,7 +1420,7 @@
       <c r="N10" s="10">
         <v>1</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="O10" s="29" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1447,12 +1450,24 @@
         <v>27</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
+      <c r="J11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="10">
+        <v>3</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>Lunes</t>
   </si>
@@ -301,21 +301,6 @@
     <t>Tercer entrega PROYECTO FINAL</t>
   </si>
   <si>
-    <t>DB de supermercado</t>
-  </si>
-  <si>
-    <t>Emprendedurismo</t>
-  </si>
-  <si>
-    <t>viernes 5 de agosto</t>
-  </si>
-  <si>
-    <t>Sam Walton</t>
-  </si>
-  <si>
-    <t>Entregado</t>
-  </si>
-  <si>
     <t>Progreso…</t>
   </si>
   <si>
@@ -334,13 +319,13 @@
     <t>2 meses</t>
   </si>
   <si>
-    <t>miercoles 3 de junio</t>
-  </si>
-  <si>
     <t>Terminado</t>
   </si>
   <si>
-    <t>Mapa de empatia</t>
+    <t>Fundamentos de programacion</t>
+  </si>
+  <si>
+    <t>Ejercicios de algoritmos</t>
   </si>
 </sst>
 </file>
@@ -577,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -672,6 +657,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +982,7 @@
     <col min="7" max="7" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40" style="3" bestFit="1" customWidth="1"/>
@@ -1106,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1136,22 +1127,22 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="4" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="L4" s="30">
+        <v>-3</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N4" s="10">
         <v>5</v>
       </c>
-      <c r="O4" s="29" t="s">
-        <v>87</v>
+      <c r="O4" s="28" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1190,13 +1181,13 @@
         <v>-3</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N5" s="10">
         <v>5</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1226,22 +1217,22 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="4" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="30">
-        <v>-3</v>
+        <v>84</v>
+      </c>
+      <c r="L6" s="10">
+        <v>3</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" s="10">
-        <v>5</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1274,19 +1265,19 @@
         <v>40</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="10">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" s="10">
         <v>10</v>
       </c>
-      <c r="O7" s="28" t="s">
-        <v>88</v>
+      <c r="O7" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1319,13 +1310,13 @@
         <v>40</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N8" s="10">
         <v>10</v>
@@ -1334,7 +1325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>49</v>
       </c>
@@ -1360,22 +1351,22 @@
         <v>27</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="4" t="s">
-        <v>40</v>
+      <c r="J9" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="10">
+        <v>3</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="N9" s="10">
-        <v>10</v>
-      </c>
-      <c r="O9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="34" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1405,24 +1396,12 @@
         <v>27</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="10">
-        <v>1</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>95</v>
-      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
@@ -1450,24 +1429,12 @@
         <v>27</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" s="10">
-        <v>3</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>95</v>
-      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -45,12 +45,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="M4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>holtlanf999:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+terminar toDoApp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>holtlanf999:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Terminar factory para poder imprimir el HTML compuesto con la info del clima y las imagenes, darle estilo con CSS</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="100">
   <si>
     <t>Lunes</t>
   </si>
@@ -292,15 +340,6 @@
     <t>weatherApp</t>
   </si>
   <si>
-    <t>Primer entrega PROYECTO FINAL</t>
-  </si>
-  <si>
-    <t>Segunda entrega PROYECTO FINAL</t>
-  </si>
-  <si>
-    <t>Tercer entrega PROYECTO FINAL</t>
-  </si>
-  <si>
     <t>Progreso…</t>
   </si>
   <si>
@@ -319,13 +358,46 @@
     <t>2 meses</t>
   </si>
   <si>
-    <t>Terminado</t>
-  </si>
-  <si>
     <t>Fundamentos de programacion</t>
   </si>
   <si>
-    <t>Ejercicios de algoritmos</t>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>21 de junio</t>
+  </si>
+  <si>
+    <t>Jueves 18 de junio</t>
+  </si>
+  <si>
+    <t>tarea contact form</t>
+  </si>
+  <si>
+    <t>segunda entrega PROYECTO FINAL</t>
+  </si>
+  <si>
+    <t>tercer entrega PROYECTO FINAL</t>
+  </si>
+  <si>
+    <t>tarea my SpreadSheets App</t>
+  </si>
+  <si>
+    <t>ejercicios de algoritmos</t>
+  </si>
+  <si>
+    <t>Trabajo de investigacion BD noSQL</t>
+  </si>
+  <si>
+    <t>22 de julio</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Miercoles 17 de junio</t>
+  </si>
+  <si>
+    <t>ejercicio de normalizacion-Universidad</t>
   </si>
 </sst>
 </file>
@@ -422,7 +494,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,7 +587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -586,18 +664,9 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -643,26 +712,41 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,48 +1075,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="J1" s="32" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="J1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
@@ -1051,33 +1135,33 @@
       <c r="N2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="24" t="s">
+      <c r="B3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="2"/>
@@ -1087,42 +1171,42 @@
       <c r="K3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="25">
         <v>-6</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>5</v>
       </c>
-      <c r="O3" s="28" t="s">
-        <v>83</v>
+      <c r="O3" s="35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="24" t="s">
+      <c r="B4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>50</v>
       </c>
       <c r="I4" s="2"/>
@@ -1132,42 +1216,42 @@
       <c r="K4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="25">
         <v>-3</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <v>5</v>
       </c>
-      <c r="O4" s="28" t="s">
-        <v>83</v>
+      <c r="O4" s="35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="24" t="s">
+      <c r="B5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>50</v>
       </c>
       <c r="I5" s="2"/>
@@ -1177,87 +1261,87 @@
       <c r="K5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="25">
         <v>-3</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <v>5</v>
       </c>
-      <c r="O5" s="28" t="s">
-        <v>83</v>
+      <c r="O5" s="35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="24" t="s">
+      <c r="B6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>50</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="4" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="10">
-        <v>3</v>
+        <v>88</v>
+      </c>
+      <c r="L6" s="9">
+        <v>10</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="10">
+        <v>93</v>
+      </c>
+      <c r="N6" s="31">
         <v>10</v>
       </c>
-      <c r="O6" s="29" t="s">
-        <v>89</v>
+      <c r="O6" s="33" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="B7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>50</v>
       </c>
       <c r="I7" s="2"/>
@@ -1265,44 +1349,44 @@
         <v>40</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="10">
+        <v>91</v>
+      </c>
+      <c r="N7" s="31">
         <v>10</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="24" t="s">
+      <c r="B8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="2"/>
@@ -1310,575 +1394,611 @@
         <v>40</v>
       </c>
       <c r="K8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="31">
+        <v>10</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="31">
+        <v>10</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="9">
+        <v>6</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="9">
+        <v>8</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="10">
+      <c r="K11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="30">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="9">
+        <v>8</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="B12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="9">
+        <v>7</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="31">
+        <v>10</v>
+      </c>
+      <c r="O12" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="10">
-        <v>3</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="10">
-        <v>8</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="27" t="s">
+    <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="23" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="4"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="26" t="s">
+      <c r="B14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="4"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="10"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="36"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="26" t="s">
+      <c r="B15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="26" t="s">
+      <c r="E15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="4"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="10"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="36"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="E16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="4"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="10"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="E17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="4"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="10"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="36"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="4"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="10"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="27" t="s">
+      <c r="E19" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="4"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="36"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="26" t="s">
+      <c r="C21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="B22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="B23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="26" t="s">
+      <c r="B24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="25" t="s">
+      <c r="B25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="24" t="s">
+      <c r="B26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1909,328 +2029,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>0.2</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>0.2</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>0</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>0.2</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>0.2</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>0.2</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <v>0.1</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>0.1</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <v>0.3</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <v>0.1</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <v>0.1</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="13">
         <v>0.3</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="15">
         <v>1</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="13">
         <v>0.1</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="13">
         <v>0.1</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="13">
         <v>0.3</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="13">
         <v>0.1</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="13">
         <v>0.1</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="13">
         <v>0.3</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15">
         <v>1</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="15">
         <v>0</v>
       </c>
     </row>

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -41,7 +41,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Ir afinando y adelantando este trabajo para aclarar dudas en clase</t>
+terminar toDoApp</t>
         </r>
       </text>
     </comment>
@@ -65,11 +65,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-terminar toDoApp</t>
+Terminar factory para poder imprimir el HTML compuesto con la info del clima y las imagenes, darle estilo con CSS</t>
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0">
+    <comment ref="M6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Terminar factory para poder imprimir el HTML compuesto con la info del clima y las imagenes, darle estilo con CSS</t>
+Ir afinando y adelantando este trabajo para aclarar dudas en clase</t>
         </r>
       </text>
     </comment>
@@ -494,7 +494,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,12 +587,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -640,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,31 +715,28 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,7 +1043,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,24 +1066,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="J1" s="29" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="J1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -1135,7 +1126,7 @@
       <c r="N2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1166,21 +1157,21 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="4" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L3" s="25">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N3" s="9">
         <v>5</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="32" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1217,15 +1208,15 @@
         <v>77</v>
       </c>
       <c r="L4" s="25">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N4" s="9">
         <v>5</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="32" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1259,19 +1250,19 @@
         <v>76</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="25">
-        <v>-3</v>
+        <v>88</v>
+      </c>
+      <c r="L5" s="9">
+        <v>6</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="9">
-        <v>5</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>80</v>
+        <v>93</v>
+      </c>
+      <c r="N5" s="28">
+        <v>10</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1301,22 +1292,22 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="4" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="9">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6" s="31">
-        <v>10</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>42</v>
+        <v>75</v>
+      </c>
+      <c r="N6" s="9">
+        <v>5</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1357,10 +1348,10 @@
       <c r="M7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="28">
         <v>10</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="30" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1402,10 +1393,10 @@
       <c r="M8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="28">
         <v>10</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="30" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1447,10 +1438,10 @@
       <c r="M9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="28">
         <v>10</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="30" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1489,13 +1480,13 @@
       <c r="L10" s="9">
         <v>6</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="29" t="s">
         <v>99</v>
       </c>
       <c r="N10" s="9">
         <v>8</v>
       </c>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="30" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1531,8 +1522,8 @@
       <c r="K11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="30">
-        <v>1</v>
+      <c r="L11" s="25">
+        <v>0</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>94</v>
@@ -1582,7 +1573,7 @@
       <c r="M12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="28">
         <v>10</v>
       </c>
       <c r="O12" s="27" t="s">
@@ -1620,7 +1611,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="36"/>
+      <c r="O13" s="33"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
@@ -1653,7 +1644,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="36"/>
+      <c r="O14" s="33"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
@@ -1686,7 +1677,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="36"/>
+      <c r="O15" s="33"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
@@ -1719,7 +1710,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="36"/>
+      <c r="O16" s="33"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
@@ -1752,7 +1743,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="36"/>
+      <c r="O17" s="33"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
@@ -1785,7 +1776,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="36"/>
+      <c r="O18" s="33"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
@@ -1818,7 +1809,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="36"/>
+      <c r="O19" s="33"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -379,9 +379,6 @@
     <t>tercer entrega PROYECTO FINAL</t>
   </si>
   <si>
-    <t>tarea my SpreadSheets App</t>
-  </si>
-  <si>
     <t>ejercicios de algoritmos</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>ejercicio de normalizacion-Universidad</t>
+  </si>
+  <si>
+    <t>tarea SpreadSheets App</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +591,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -706,9 +712,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,6 +740,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1042,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,24 +1072,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="J1" s="35" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="J1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -1126,7 +1132,7 @@
       <c r="N2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="30" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1162,7 +1168,7 @@
       <c r="K3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="9">
         <v>0</v>
       </c>
       <c r="M3" s="8" t="s">
@@ -1171,7 +1177,7 @@
       <c r="N3" s="9">
         <v>5</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="31" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1207,7 +1213,7 @@
       <c r="K4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="9">
         <v>0</v>
       </c>
       <c r="M4" s="8" t="s">
@@ -1216,7 +1222,7 @@
       <c r="N4" s="9">
         <v>5</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="31" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1252,17 +1258,17 @@
       <c r="K5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="9">
-        <v>6</v>
+      <c r="L5" s="35">
+        <v>5</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="28">
+        <v>99</v>
+      </c>
+      <c r="N5" s="27">
         <v>10</v>
       </c>
-      <c r="O5" s="30" t="s">
-        <v>42</v>
+      <c r="O5" s="31" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1297,7 +1303,7 @@
       <c r="K6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="9">
         <v>0</v>
       </c>
       <c r="M6" s="8" t="s">
@@ -1306,7 +1312,7 @@
       <c r="N6" s="9">
         <v>5</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="31" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1348,10 +1354,10 @@
       <c r="M7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="27">
         <v>10</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="29" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1393,10 +1399,10 @@
       <c r="M8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="27">
         <v>10</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="29" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1430,18 +1436,18 @@
         <v>40</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="M9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" s="28">
+        <v>94</v>
+      </c>
+      <c r="N9" s="27">
         <v>10</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="29" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1475,18 +1481,18 @@
         <v>40</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L10" s="9">
         <v>6</v>
       </c>
-      <c r="M10" s="29" t="s">
-        <v>99</v>
+      <c r="M10" s="28" t="s">
+        <v>98</v>
       </c>
       <c r="N10" s="9">
         <v>8</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="O10" s="29" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1516,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="25" t="s">
         <v>86</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="9">
         <v>0</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N11" s="9">
         <v>8</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="26" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1567,16 +1573,16 @@
       <c r="K12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="9">
-        <v>7</v>
+      <c r="L12" s="35">
+        <v>3</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="27">
         <v>10</v>
       </c>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="26" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1611,7 +1617,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="33"/>
+      <c r="O13" s="32"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
@@ -1644,7 +1650,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="33"/>
+      <c r="O14" s="32"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
@@ -1677,7 +1683,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="33"/>
+      <c r="O15" s="32"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
@@ -1710,7 +1716,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="33"/>
+      <c r="O16" s="32"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
@@ -1743,7 +1749,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="33"/>
+      <c r="O17" s="32"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
@@ -1776,7 +1782,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="33"/>
+      <c r="O18" s="32"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
@@ -1809,7 +1815,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="33"/>
+      <c r="O19" s="32"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="4950"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="4950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de estudio" sheetId="1" r:id="rId1"/>
@@ -364,9 +364,6 @@
     <t>PHP</t>
   </si>
   <si>
-    <t>21 de junio</t>
-  </si>
-  <si>
     <t>Jueves 18 de junio</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>tarea SpreadSheets App</t>
+  </si>
+  <si>
+    <t>Domingo 21 de junio</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,6 +597,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -640,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,14 +742,17 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,24 +1081,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="J1" s="34" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="J1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -1256,13 +1265,13 @@
         <v>76</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" s="35">
+        <v>99</v>
+      </c>
+      <c r="L5" s="33">
         <v>5</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N5" s="27">
         <v>10</v>
@@ -1352,7 +1361,7 @@
         <v>84</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N7" s="27">
         <v>10</v>
@@ -1397,7 +1406,7 @@
         <v>85</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" s="27">
         <v>10</v>
@@ -1436,13 +1445,13 @@
         <v>40</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="M9" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" s="27">
         <v>10</v>
@@ -1481,13 +1490,13 @@
         <v>40</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L10" s="9">
         <v>6</v>
       </c>
       <c r="M10" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N10" s="9">
         <v>8</v>
@@ -1532,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N11" s="9">
         <v>8</v>
@@ -1571,13 +1580,13 @@
         <v>87</v>
       </c>
       <c r="K12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="33">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="L12" s="35">
-        <v>3</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="N12" s="27">
         <v>10</v>
@@ -2014,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,7 +2052,7 @@
       <c r="B2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2146,7 +2155,7 @@
       <c r="B12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="36" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2261,7 +2270,7 @@
       <c r="B23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="36" t="s">
         <v>73</v>
       </c>
     </row>

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="4950" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de estudio" sheetId="1" r:id="rId1"/>
@@ -15,90 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>holtlanf999</author>
-  </authors>
-  <commentList>
-    <comment ref="M3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>holtlanf999:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-terminar toDoApp</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>holtlanf999:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Terminar factory para poder imprimir el HTML compuesto con la info del clima y las imagenes, darle estilo con CSS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>holtlanf999:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Ir afinando y adelantando este trabajo para aclarar dudas en clase</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>Lunes</t>
   </si>
@@ -322,24 +240,9 @@
     <t>Lenguje Servidor - PHP</t>
   </si>
   <si>
-    <t>miercoles 27 de mayo</t>
-  </si>
-  <si>
-    <t>historico campeonatos</t>
-  </si>
-  <si>
     <t>JS</t>
   </si>
   <si>
-    <t>Lunes 1 de junio</t>
-  </si>
-  <si>
-    <t>toDoapp</t>
-  </si>
-  <si>
-    <t>weatherApp</t>
-  </si>
-  <si>
     <t>Progreso…</t>
   </si>
   <si>
@@ -361,15 +264,6 @@
     <t>Fundamentos de programacion</t>
   </si>
   <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>Jueves 18 de junio</t>
-  </si>
-  <si>
-    <t>tarea contact form</t>
-  </si>
-  <si>
     <t>segunda entrega PROYECTO FINAL</t>
   </si>
   <si>
@@ -388,9 +282,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>Miercoles 17 de junio</t>
-  </si>
-  <si>
     <t>ejercicio de normalizacion-Universidad</t>
   </si>
   <si>
@@ -398,13 +289,16 @@
   </si>
   <si>
     <t>Domingo 21 de junio</t>
+  </si>
+  <si>
+    <t>Miercoles 24 de junio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,19 +325,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -646,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,28 +554,28 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,38 +602,35 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,11 +932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1019,7 @@
       <c r="N2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="29" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1172,22 +1050,22 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="L3" s="32">
+        <v>5</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="9">
-        <v>5</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="N3" s="26">
+        <v>10</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1217,22 +1095,22 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="4" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="9">
-        <v>0</v>
+      <c r="L4" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="9">
-        <v>5</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N4" s="26">
+        <v>10</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1262,22 +1140,22 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="4" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="33">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="27">
+        <v>83</v>
+      </c>
+      <c r="N5" s="26">
         <v>10</v>
       </c>
-      <c r="O5" s="31" t="s">
-        <v>80</v>
+      <c r="O5" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1310,22 +1188,22 @@
         <v>40</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" s="9">
-        <v>5</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="N6" s="26">
+        <v>10</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
@@ -1355,22 +1233,22 @@
         <v>40</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="N7" s="27">
-        <v>10</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="L7" s="9">
+        <v>6</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="9">
+        <v>8</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>48</v>
       </c>
@@ -1396,23 +1274,23 @@
         <v>50</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="4" t="s">
-        <v>40</v>
+      <c r="J8" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="27">
-        <v>10</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>42</v>
+        <v>84</v>
+      </c>
+      <c r="N8" s="9">
+        <v>8</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1441,26 +1319,14 @@
         <v>27</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="N9" s="27">
-        <v>10</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="4"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>8</v>
       </c>
@@ -1486,26 +1352,14 @@
         <v>27</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="9">
-        <v>6</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="9">
-        <v>8</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="4"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
@@ -1531,24 +1385,12 @@
         <v>27</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="9">
-        <v>8</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>42</v>
-      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
@@ -1576,24 +1418,12 @@
         <v>27</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="33">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="27">
-        <v>10</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>42</v>
-      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
@@ -1626,7 +1456,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="32"/>
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
@@ -1659,7 +1489,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="32"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
@@ -1692,7 +1522,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="32"/>
+      <c r="O15" s="31"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
@@ -1725,7 +1555,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="32"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
@@ -1758,7 +1588,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="32"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
@@ -1791,7 +1621,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="32"/>
+      <c r="O18" s="31"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
@@ -1824,7 +1654,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="32"/>
+      <c r="O19" s="31"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
@@ -2015,7 +1845,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2023,7 +1852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -2052,7 +1881,7 @@
       <c r="B2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="33" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2155,7 +1984,7 @@
       <c r="B12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="33" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2270,7 +2099,7 @@
       <c r="B23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="33" t="s">
         <v>73</v>
       </c>
     </row>

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan de estudio" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Evaluación" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Plan de estudio" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluación" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="87">
   <si>
     <t>Administrador de tiempo</t>
   </si>
@@ -108,9 +107,6 @@
     <t>viernes 14 de agosto</t>
   </si>
   <si>
-    <t>2 meses</t>
-  </si>
-  <si>
     <t>tercer entrega PROYECTO FINAL</t>
   </si>
   <si>
@@ -123,36 +119,18 @@
     <t>22 de julio</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Trabajo de investigacion BD noSQL</t>
   </si>
   <si>
     <t>5:00am</t>
   </si>
   <si>
-    <t>ejercicio de normalizacion-Universidad</t>
-  </si>
-  <si>
-    <t>Terminar</t>
-  </si>
-  <si>
     <t>6:00am</t>
   </si>
   <si>
     <t>Libre</t>
   </si>
   <si>
-    <t>Fundamentos de programacion</t>
-  </si>
-  <si>
-    <t>Viernes 12 de junio</t>
-  </si>
-  <si>
-    <t>ejercicios de algoritmos</t>
-  </si>
-  <si>
     <t>7:00am</t>
   </si>
   <si>
@@ -295,17 +273,16 @@
   </si>
   <si>
     <t>Lenguje Servidor - PHP</t>
+  </si>
+  <si>
+    <t>13 días</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-  </numFmts>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -314,22 +291,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -337,7 +299,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -371,7 +333,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -505,199 +467,152 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -756,43 +671,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF1F497D"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.1457489878543"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="36.7125506072874"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.8542510121458"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="25.5708502024291"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.7165991902834"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="40"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="8.5703125" style="3"/>
+    <col min="2" max="2" width="12.28515625" style="3"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="13.28515625" style="3"/>
+    <col min="5" max="5" width="8.5703125" style="3"/>
+    <col min="6" max="6" width="25.140625" style="3"/>
+    <col min="7" max="7" width="36.7109375" style="3"/>
+    <col min="8" max="8" width="11.28515625" style="3"/>
+    <col min="9" max="9" width="11.42578125" style="3"/>
+    <col min="10" max="10" width="19.85546875" style="3"/>
+    <col min="11" max="11" width="25.5703125" style="3"/>
+    <col min="12" max="12" width="23.7109375" style="3"/>
+    <col min="13" max="13" width="40" style="3"/>
+    <col min="14" max="14" width="24" style="3"/>
+    <col min="15" max="15" width="14.28515625" style="3"/>
+    <col min="16" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,17 +1013,17 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -858,7 +1068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -894,14 +1104,14 @@
       <c r="M3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="14" t="n">
+      <c r="N3" s="14">
         <v>5</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -939,14 +1149,14 @@
       <c r="M4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="14" t="n">
+      <c r="N4" s="14">
         <v>10</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
@@ -979,21 +1189,21 @@
         <v>29</v>
       </c>
       <c r="L5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="N5" s="14">
+        <v>10</v>
+      </c>
+      <c r="O5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O5" s="17" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>17</v>
@@ -1021,25 +1231,25 @@
         <v>23</v>
       </c>
       <c r="K6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="N6" s="14">
+        <v>10</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1062,90 +1272,70 @@
         <v>17</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="12"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="B9" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="11"/>
@@ -1155,30 +1345,30 @@
       <c r="N9" s="13"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="11"/>
@@ -1188,30 +1378,30 @@
       <c r="N10" s="13"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="11"/>
@@ -1221,30 +1411,30 @@
       <c r="N11" s="13"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="11"/>
@@ -1254,30 +1444,30 @@
       <c r="N12" s="13"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="11"/>
@@ -1287,30 +1477,30 @@
       <c r="N13" s="13"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="11"/>
@@ -1320,30 +1510,30 @@
       <c r="N14" s="13"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="11"/>
@@ -1353,30 +1543,30 @@
       <c r="N15" s="13"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="22" t="s">
+      <c r="H16" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="11"/>
@@ -1386,30 +1576,30 @@
       <c r="N16" s="13"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="11"/>
@@ -1419,30 +1609,30 @@
       <c r="N17" s="13"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="11"/>
@@ -1452,30 +1642,30 @@
       <c r="N18" s="13"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="11"/>
@@ -1485,140 +1675,140 @@
       <c r="N19" s="13"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="B24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
@@ -1635,15 +1825,15 @@
         <v>17</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>17</v>
@@ -1672,368 +1862,355 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:O1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="63.7125506072874"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="30"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="28.7165991902834"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="63.7109375" style="24"/>
+    <col min="2" max="2" width="30" style="24"/>
+    <col min="3" max="3" width="28.7109375" style="24"/>
+    <col min="4" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="29" t="n">
+      <c r="B8" s="29">
         <v>0.2</v>
       </c>
-      <c r="C4" s="29" t="n">
+      <c r="C8" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="29" t="n">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31">
+        <v>1</v>
+      </c>
+      <c r="C9" s="31">
         <v>0</v>
       </c>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C8" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
     </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B18" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="29" t="n">
+      <c r="B20" s="31">
+        <v>1</v>
+      </c>
+      <c r="C20" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C19" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="C27" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="29" t="n">
+      <c r="B29" s="29">
         <v>0.1</v>
       </c>
-      <c r="C25" s="29" t="n">
+      <c r="C29" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="29" t="n">
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C27" s="29" t="n">
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C30" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>Administrador de tiempo</t>
   </si>
@@ -270,13 +270,34 @@
   </si>
   <si>
     <t>En progreso</t>
+  </si>
+  <si>
+    <t>Side Project</t>
+  </si>
+  <si>
+    <t>10 días</t>
+  </si>
+  <si>
+    <t>Descubrir como integrar juegos en una pagina web</t>
+  </si>
+  <si>
+    <t>Listo</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Revisar Portafolio</t>
+  </si>
+  <si>
+    <t>Revisar y hacer cambios necesarios al portafolio para que sea totalmente funcional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -355,8 +376,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +481,12 @@
         <bgColor rgb="FFA6A6A6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF45818E"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -496,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -590,6 +624,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,7 +1001,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,11 +1221,11 @@
       <c r="N5" s="12">
         <v>10</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O5" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -1214,14 +1251,26 @@
         <v>17</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="18"/>
-    </row>
-    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="12">
+        <v>10</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -1247,12 +1296,24 @@
         <v>17</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="18"/>
+      <c r="J7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="11">
+        <v>5</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -1838,7 +1899,7 @@
     <mergeCell ref="J1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="222"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de estudio" sheetId="1" r:id="rId1"/>
     <sheet name="Evaluación" sheetId="2" r:id="rId2"/>
+    <sheet name="Horario" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="95">
   <si>
     <t>Administrador de tiempo</t>
   </si>
@@ -95,12 +96,6 @@
     <t>4:00am</t>
   </si>
   <si>
-    <t>22 de julio</t>
-  </si>
-  <si>
-    <t>Trabajo de investigacion BD noSQL</t>
-  </si>
-  <si>
     <t>5:00am</t>
   </si>
   <si>
@@ -263,9 +258,6 @@
     <t>2 semanas</t>
   </si>
   <si>
-    <t>5 días</t>
-  </si>
-  <si>
     <t>inventario</t>
   </si>
   <si>
@@ -281,9 +273,6 @@
     <t>Descubrir como integrar juegos en una pagina web</t>
   </si>
   <si>
-    <t>Listo</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -291,6 +280,27 @@
   </si>
   <si>
     <t>Revisar y hacer cambios necesarios al portafolio para que sea totalmente funcional</t>
+  </si>
+  <si>
+    <t>Viernes 31 julio</t>
+  </si>
+  <si>
+    <t>Realizar prototipo funcional del app  para onebook</t>
+  </si>
+  <si>
+    <t>Emprendedurismo</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisar documentacion relacionada con AJAX </t>
+  </si>
+  <si>
+    <t>Terminar los selects de la base de datos</t>
+  </si>
+  <si>
+    <t>Hacer tarea, instrucciones en moodle</t>
   </si>
 </sst>
 </file>
@@ -377,14 +387,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,12 +491,6 @@
         <bgColor rgb="FFA6A6A6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF45818E"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -626,8 +630,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,22 +1004,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1"/>
-    <col min="2" max="2" width="12.28515625" style="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="13.28515625" style="1"/>
-    <col min="5" max="5" width="8.5703125" style="1"/>
-    <col min="6" max="6" width="25.140625" style="1"/>
-    <col min="7" max="7" width="36.7109375" style="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1"/>
     <col min="9" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="19.85546875" style="1"/>
+    <col min="10" max="10" width="23.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="25.5703125" style="1"/>
     <col min="12" max="12" width="23.7109375" style="1"/>
     <col min="13" max="13" width="40" style="1"/>
@@ -1024,879 +1028,545 @@
     <col min="16" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1"/>
+      <c r="H1"/>
       <c r="I1"/>
-      <c r="J1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="12">
+        <v>6</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="12">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="12">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="11">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="12">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="F9" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="12">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="12">
-        <v>6</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="12">
-        <v>10</v>
-      </c>
-      <c r="O4" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="12">
-        <v>10</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="12">
-        <v>10</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="11">
-        <v>5</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="18"/>
-    </row>
-    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="18"/>
-    </row>
-    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="18"/>
-    </row>
-    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="18"/>
-    </row>
-    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="18"/>
-    </row>
-    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="18"/>
-    </row>
-    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="18"/>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="18"/>
-    </row>
-    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="18"/>
-    </row>
-    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="18"/>
-    </row>
-    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="18"/>
-    </row>
-    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="18"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="18"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="18"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="18"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="18"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="18"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="18"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="18"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:O1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -1921,21 +1591,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>19</v>
@@ -1943,18 +1613,18 @@
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="26">
         <v>0.2</v>
@@ -1965,7 +1635,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="26">
         <v>0.2</v>
@@ -1977,7 +1647,7 @@
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="26">
         <v>0.2</v>
@@ -1988,7 +1658,7 @@
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="26">
         <v>0.2</v>
@@ -1999,7 +1669,7 @@
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="26">
         <v>0.2</v>
@@ -2024,40 +1694,40 @@
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="26">
         <v>0.1</v>
@@ -2068,7 +1738,7 @@
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="26">
         <v>0.1</v>
@@ -2079,7 +1749,7 @@
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="26">
         <v>0.3</v>
@@ -2090,7 +1760,7 @@
     </row>
     <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="26">
         <v>0.1</v>
@@ -2101,7 +1771,7 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="26">
         <v>0.1</v>
@@ -2112,7 +1782,7 @@
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="26">
         <v>0.3</v>
@@ -2123,7 +1793,7 @@
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="28">
         <v>1</v>
@@ -2139,40 +1809,40 @@
     </row>
     <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="26">
         <v>0.1</v>
@@ -2183,7 +1853,7 @@
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="26">
         <v>0.1</v>
@@ -2194,7 +1864,7 @@
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" s="26">
         <v>0.3</v>
@@ -2205,7 +1875,7 @@
     </row>
     <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28" s="26">
         <v>0.1</v>
@@ -2216,7 +1886,7 @@
     </row>
     <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="26">
         <v>0.1</v>
@@ -2227,7 +1897,7 @@
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" s="26">
         <v>0.3</v>
@@ -2249,4 +1919,684 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan-de-estudio.xlsx
+++ b/plan-de-estudio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="79">
   <si>
     <t>Administrador de tiempo</t>
   </si>
@@ -78,21 +78,9 @@
     <t>Bases de datos</t>
   </si>
   <si>
-    <t>1 mes</t>
-  </si>
-  <si>
     <t>3:00am</t>
   </si>
   <si>
-    <t>viernes 14 de agosto</t>
-  </si>
-  <si>
-    <t>tercer entrega PROYECTO FINAL</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>4:00am</t>
   </si>
   <si>
@@ -249,58 +237,22 @@
     <t>Lenguje Servidor - PHP</t>
   </si>
   <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>viernes 24 de julio</t>
-  </si>
-  <si>
-    <t>2 semanas</t>
-  </si>
-  <si>
-    <t>inventario</t>
-  </si>
-  <si>
-    <t>En progreso</t>
-  </si>
-  <si>
-    <t>Side Project</t>
-  </si>
-  <si>
-    <t>10 días</t>
-  </si>
-  <si>
-    <t>Descubrir como integrar juegos en una pagina web</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Revisar Portafolio</t>
-  </si>
-  <si>
-    <t>Revisar y hacer cambios necesarios al portafolio para que sea totalmente funcional</t>
-  </si>
-  <si>
-    <t>Viernes 31 julio</t>
-  </si>
-  <si>
-    <t>Realizar prototipo funcional del app  para onebook</t>
-  </si>
-  <si>
-    <t>Emprendedurismo</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisar documentacion relacionada con AJAX </t>
-  </si>
-  <si>
-    <t>Terminar los selects de la base de datos</t>
-  </si>
-  <si>
-    <t>Hacer tarea, instrucciones en moodle</t>
+    <t>RWD</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>Revisar la asignacion de nuevas tareas</t>
+  </si>
+  <si>
+    <t>Terminar el blog</t>
+  </si>
+  <si>
+    <t>instalar vagrant y drupal en windows 10</t>
+  </si>
+  <si>
+    <t>En proceso</t>
   </si>
 </sst>
 </file>
@@ -394,7 +346,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,18 +381,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
         <bgColor rgb="FFB3A2C7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF009933"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF558ED5"/>
-        <bgColor rgb="FF45818E"/>
       </patternFill>
     </fill>
     <fill>
@@ -534,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,19 +509,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,48 +524,48 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,14 +963,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -1078,22 +1012,18 @@
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="12">
-        <v>6</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1107,22 +1037,18 @@
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="12">
-        <v>10</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>24</v>
+        <v>73</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="11">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -1134,24 +1060,20 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="12">
+        <v>74</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="11">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>24</v>
+      <c r="F5" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -1163,25 +1085,13 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="11">
-        <v>5</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>24</v>
-      </c>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -1192,25 +1102,13 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="11">
-        <v>3</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="11">
-        <v>5</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>24</v>
-      </c>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -1221,23 +1119,13 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>92</v>
-      </c>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="F8" s="12"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -1249,24 +1137,12 @@
       <c r="O8"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="11">
-        <v>3</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="12">
-        <v>6</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>81</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -1278,24 +1154,12 @@
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="11">
-        <v>3</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="12">
-        <v>10</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -1310,9 +1174,9 @@
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="16"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -1327,9 +1191,9 @@
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="18"/>
+      <c r="F12" s="16"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -1344,9 +1208,9 @@
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="16"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -1361,9 +1225,9 @@
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="16"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -1378,9 +1242,9 @@
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="16"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -1395,9 +1259,9 @@
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="15"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="18"/>
+      <c r="F16" s="16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -1412,9 +1276,9 @@
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="16"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -1429,9 +1293,9 @@
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="16"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -1446,9 +1310,9 @@
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="16"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -1583,335 +1447,335 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" style="21"/>
-    <col min="2" max="2" width="30" style="21"/>
-    <col min="3" max="3" width="28.7109375" style="21"/>
+    <col min="1" max="1" width="63.7109375" style="19"/>
+    <col min="2" max="2" width="30" style="19"/>
+    <col min="3" max="3" width="28.7109375" style="19"/>
     <col min="4" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C2" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="23" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B4" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B5" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="B6" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="B7" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B8" s="24">
         <v>0.2</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C8" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="26">
+      <c r="B12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="24">
         <v>0</v>
       </c>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="26">
+        <v>1</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="26">
+      <c r="C23" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="26">
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="C8" s="26">
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C27" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28">
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26">
         <v>1</v>
       </c>
-      <c r="C9" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="C19" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="28">
-        <v>1</v>
-      </c>
-      <c r="C20" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="C27" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="C30" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28">
-        <v>1</v>
-      </c>
-      <c r="C31" s="28">
+      <c r="C31" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2023,7 +1887,7 @@
     </row>
     <row r="5" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>17</v>
@@ -2049,7 +1913,7 @@
     </row>
     <row r="6" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>17</v>
@@ -2075,7 +1939,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>17</v>
@@ -2101,22 +1965,22 @@
     </row>
     <row r="8" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
@@ -2127,423 +1991,423 @@
     </row>
     <row r="9" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>28</v>
+      <c r="B11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>45</v>
+      <c r="B19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>17</v>
@@ -2560,16 +2424,16 @@
       <c r="F25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>28</v>
+      <c r="G25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>17</v>
